--- a/CIT15 Excel Lab Test_Final-End.xlsx
+++ b/CIT15 Excel Lab Test_Final-End.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3324C4EB-AECA-4584-8E86-FC39F589568D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{154FD15A-21A4-48CA-957F-C996FA169EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class Fees" sheetId="5" r:id="rId1"/>
@@ -92,7 +92,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0_);_([$$-409]* \(#,##0\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -245,33 +245,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,10 +264,36 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -297,23 +302,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="/mei23ZMLPPn43VixGIdxIqdCsLmb78j2Q2/pNoJL/nbo/yqjw3mipfQaFVIZdFXYBifQV4RC48m+s7J5xKK3dCJ7cG/atgi-~vhNzmtXTU7/2cxE2bWuFdw==" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -341,6 +341,1143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Class Enrollment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Session1!$A$7:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Computer Literacy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Computer Concepts</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Programming Level I</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photography</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Basket Weaving</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Session1!$H$7:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>506.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C09-43E3-9206-3F310E525D5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3F460F-909F-4D99-BBE4-DDCB3C5C2212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,142 +1814,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="10">
         <v>0.5</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="11">
         <v>315</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="12">
         <f>D6*C6</f>
         <v>157.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>8</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="10">
         <v>0.5</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="11">
         <v>280</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="12">
         <f t="shared" ref="E7:E10" si="0">D7*C7</f>
         <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <v>0.25</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="11">
         <v>75</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>10</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="10">
         <v>0.5</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="11">
         <v>360</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="10">
         <v>0.25</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="11">
         <v>75</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
@@ -827,7 +1964,7 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;RFresno City College</oddHeader>
   </headerFooter>
@@ -839,10 +1976,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,58 +1987,59 @@
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -923,185 +2061,185 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="17" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>0.5</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="14">
         <v>315</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="15">
         <f>D7*C7</f>
         <v>157.5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="13">
         <f>F7*D7+G7*E7</f>
         <v>2205</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>8</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>0.5</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="14">
         <v>280</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="15">
         <f t="shared" ref="E8:E11" si="0">D8*C8</f>
         <v>140</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>8</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="13">
         <f t="shared" ref="H8:H11" si="1">F8*D8+G8*E8</f>
         <v>1680</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.25</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="14">
         <v>75</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>10</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.5</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="14">
         <v>360</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="15">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>5</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="13">
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.25</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="14">
         <v>75</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="13">
         <f t="shared" si="1"/>
         <v>506.25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="16">
         <f>SUM(D7:D11)</f>
         <v>1105</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="16">
         <f t="shared" ref="E13:H13" si="2">SUM(E7:E11)</f>
         <v>515</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="18">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="18">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="16">
         <f t="shared" si="2"/>
         <v>6596.25</v>
       </c>
@@ -1110,35 +2248,38 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="16">
         <f>AVERAGE(D7:D11)</f>
         <v>221</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="16">
         <f t="shared" ref="E14:H14" si="3">AVERAGE(E7:E11)</f>
         <v>103</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="18">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="18">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="16">
         <f t="shared" si="3"/>
         <v>1319.25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45582</v>
-      </c>
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1153,7 +2294,12 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D
+&amp;RFresno City College</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
